--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>IntroScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtHomeScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -447,6 +455,17 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700"/>
   </bookViews>
   <sheets>
-    <sheet name="intoScene" sheetId="1" r:id="rId1"/>
+    <sheet name="Scene" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,26 @@
   </si>
   <si>
     <t>AtHomeScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCheckScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobDiaryScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacilityScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,13 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -452,18 +475,58 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>ParkScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CafeScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvenienceScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +165,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -530,6 +541,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>ConvenienceScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadyForEndingScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,13 +155,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +183,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -557,6 +575,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
+    <sheet name="Ad" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -579,10 +580,45 @@
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
-    <sheet name="Ad" sheetId="2" r:id="rId2"/>
+    <sheet name="TitleScene" sheetId="3" r:id="rId2"/>
+    <sheet name="CareGiverListScene" sheetId="5" r:id="rId3"/>
+    <sheet name="IntroScene" sheetId="6" r:id="rId4"/>
+    <sheet name="Common" sheetId="4" r:id="rId5"/>
+    <sheet name="Ad" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +96,58 @@
   </si>
   <si>
     <t>ReadyForEndingScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize Convenience Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize Cafe Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize MainEvent Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize JobEvent Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScrollView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadingDataFromFirebaseDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadingClearData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsertingPlayerDataFirebaseDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +243,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,9 +652,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="26.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -9,15 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5700" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
     <sheet name="TitleScene" sheetId="3" r:id="rId2"/>
     <sheet name="CareGiverListScene" sheetId="5" r:id="rId3"/>
     <sheet name="IntroScene" sheetId="6" r:id="rId4"/>
-    <sheet name="Common" sheetId="4" r:id="rId5"/>
-    <sheet name="Ad" sheetId="2" r:id="rId6"/>
+    <sheet name="AtHomeScene" sheetId="7" r:id="rId5"/>
+    <sheet name="ConvenienceScene" sheetId="8" r:id="rId6"/>
+    <sheet name="ItemCheckScene" sheetId="9" r:id="rId7"/>
+    <sheet name="StatusScene" sheetId="10" r:id="rId8"/>
+    <sheet name="JobDiaryScene" sheetId="11" r:id="rId9"/>
+    <sheet name="FacilityScene" sheetId="12" r:id="rId10"/>
+    <sheet name="ParkScene" sheetId="13" r:id="rId11"/>
+    <sheet name="CafeScene" sheetId="14" r:id="rId12"/>
+    <sheet name="ReadyForEndingScene" sheetId="15" r:id="rId13"/>
+    <sheet name="Common" sheetId="4" r:id="rId14"/>
+    <sheet name="Ad" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>SceneName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +157,38 @@
   </si>
   <si>
     <t>InsertingPlayerDataFirebaseDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductStock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pagination UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemUsing Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScrollSnap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallJobEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallMainEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,6 +691,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
@@ -751,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -788,13 +1020,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
@@ -806,47 +1065,108 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
